--- a/Conception Du Projet/Sim DATA .xlsx
+++ b/Conception Du Projet/Sim DATA .xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Topnet-B2C-Stage-\Conception Du Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D459DB9-8CBD-4B0E-AA40-7DD904AA5A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FB7257-F34B-4FD0-A1BE-200373FE2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="139">
   <si>
     <t>valeur_commerciale_weight</t>
   </si>
@@ -473,12 +473,18 @@
   <si>
     <t>Lotfi</t>
   </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +502,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,6 +521,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -552,19 +567,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -783,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -986,8 +1002,8 @@
       <c r="R2" s="1">
         <v>0</v>
       </c>
-      <c r="S2" s="1">
-        <v>1</v>
+      <c r="S2" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="T2" s="1">
         <v>1</v>
@@ -1013,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ref="AA2:AA9" ca="1" si="0">ROUND(RAND()*1,0)</f>
         <v>1</v>
       </c>
       <c r="AB2">
-        <f t="shared" ref="AB2:AC65" ca="1" si="0">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AB2:AC65" ca="1" si="1">ROUND(RAND()*1,0)</f>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" cm="1">
         <f t="array" ref="AD2:AD100">_xlfn.SEQUENCE(99.1)</f>
@@ -1032,23 +1048,23 @@
         <v>32</v>
       </c>
       <c r="AF2" s="1">
-        <f t="shared" ref="AF2:AF100" si="1">A2 * ( E2+F2+G2+H2)/100</f>
+        <f t="shared" ref="AF2:AF100" si="2">A2 * ( E2+F2+G2+H2)/100</f>
         <v>20</v>
       </c>
       <c r="AG2" s="1">
-        <f t="shared" ref="AG2:AG100" si="2">D2*(O2+P2+N2)/100</f>
+        <f t="shared" ref="AG2:AG100" si="3">D2*(O2+P2+N2)/100</f>
         <v>50</v>
       </c>
       <c r="AH2" s="1">
-        <f t="shared" ref="AH2:AH100" si="3">C2*(I2+J2+K2)/100</f>
+        <f t="shared" ref="AH2:AH100" si="4">C2*(I2+J2+K2)/100</f>
         <v>20</v>
       </c>
       <c r="AI2" s="1">
-        <f t="shared" ref="AI2:AI100" si="4">B2*(L2+M2)/100</f>
+        <f t="shared" ref="AI2:AI100" si="5">B2*(L2+M2)/100</f>
         <v>10</v>
       </c>
       <c r="AJ2" s="1">
-        <f t="shared" ref="AJ2:AJ100" si="5">(A2+B2+C2+D2)</f>
+        <f t="shared" ref="AJ2:AJ100" si="6">(A2+B2+C2+D2)</f>
         <v>100</v>
       </c>
     </row>
@@ -1102,16 +1118,15 @@
         <v>50</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" ref="Q3:R74" ca="1" si="6">ROUND(RAND()*1,0)</f>
+        <f t="shared" ref="Q3:R74" ca="1" si="7">ROUND(RAND()*1,0)</f>
         <v>0</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="T3" t="e" cm="1">
-        <f t="array" aca="1" ref="T3" ca="1">1 - (_xludf.ROW(T3) - 2) *_FV( 0,"1")</f>
-        <v>#NAME?</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -1121,19 +1136,19 @@
         <v>1</v>
       </c>
       <c r="Y3">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="Y3:Y18" ca="1" si="8">ROUND(RAND()*1,0)</f>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD3">
@@ -1143,23 +1158,23 @@
         <v>46</v>
       </c>
       <c r="AF3" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI3" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ3" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1213,12 +1228,12 @@
         <v>50</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>3</v>
@@ -1228,19 +1243,19 @@
         <v>1</v>
       </c>
       <c r="Y4">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA4">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD4">
@@ -1250,23 +1265,23 @@
         <v>47</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1320,34 +1335,34 @@
         <v>50</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U5">
         <v>4</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W66" ca="1" si="7">ROUND(RAND()*1,0)</f>
+        <f t="shared" ref="W5:W66" ca="1" si="9">ROUND(RAND()*1,0)</f>
         <v>1</v>
       </c>
       <c r="Y5">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC5">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD5">
@@ -1357,23 +1372,23 @@
         <v>48</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1427,34 +1442,34 @@
         <v>50</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U6">
         <v>5</v>
       </c>
       <c r="W6">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD6">
@@ -1464,23 +1479,23 @@
         <v>49</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1534,35 +1549,35 @@
         <v>50</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>6</v>
       </c>
       <c r="W7">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA7">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1571,23 +1586,23 @@
         <v>50</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1641,34 +1656,34 @@
         <v>50</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
       <c r="W8">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y8">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="AB8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD8">
@@ -1678,23 +1693,23 @@
         <v>51</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1748,34 +1763,34 @@
         <v>50</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U9">
         <v>8</v>
       </c>
       <c r="W9">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y9">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD9">
@@ -1785,23 +1800,23 @@
         <v>52</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1855,35 +1870,35 @@
         <v>50</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U10">
         <v>9</v>
       </c>
       <c r="W10">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y10">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA10">
-        <f t="shared" ref="AA10:AA40" ca="1" si="8">ROUND(RAND()*1,0)</f>
+        <f t="shared" ref="AA10:AA40" ca="1" si="10">ROUND(RAND()*1,0)</f>
         <v>0</v>
       </c>
       <c r="AB10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>9</v>
@@ -1892,23 +1907,23 @@
         <v>53</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -1962,35 +1977,35 @@
         <v>50</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U11">
         <v>10</v>
       </c>
       <c r="W11">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y11">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA11">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD11">
         <v>10</v>
@@ -1999,23 +2014,23 @@
         <v>54</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2069,34 +2084,34 @@
         <v>50</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>11</v>
       </c>
       <c r="W12">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD12">
@@ -2106,23 +2121,23 @@
         <v>55</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2176,34 +2191,34 @@
         <v>50</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U13">
         <v>12</v>
       </c>
       <c r="W13">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y13">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB13">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD13">
@@ -2213,23 +2228,23 @@
         <v>56</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2283,34 +2298,34 @@
         <v>50</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U14">
         <v>13</v>
       </c>
       <c r="W14">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA14">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD14">
@@ -2320,23 +2335,23 @@
         <v>57</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2390,35 +2405,35 @@
         <v>50</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U15">
         <v>14</v>
       </c>
       <c r="W15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y15">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB15">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>14</v>
@@ -2427,23 +2442,23 @@
         <v>58</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2497,35 +2512,35 @@
         <v>50</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>15</v>
       </c>
       <c r="W16">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y16">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA16">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>15</v>
@@ -2534,23 +2549,23 @@
         <v>59</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2604,34 +2619,34 @@
         <v>50</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U17">
         <v>16</v>
       </c>
       <c r="W17">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y17">
-        <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC17">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD17">
@@ -2641,23 +2656,23 @@
         <v>60</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2711,34 +2726,34 @@
         <v>50</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R18" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U18">
         <v>17</v>
       </c>
       <c r="W18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y18">
-        <f ca="1">ROUND(RAND()*1,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA18">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD18">
@@ -2748,23 +2763,23 @@
         <v>61</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2818,35 +2833,35 @@
         <v>50</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>18</v>
       </c>
       <c r="W19">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <f t="shared" ref="Y19:Y82" ca="1" si="9">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="Y19:Y82" ca="1" si="11">ROUND(RAND()*1,0)</f>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD19">
         <v>18</v>
@@ -2855,23 +2870,23 @@
         <v>62</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2925,34 +2940,34 @@
         <v>50</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U20">
         <v>19</v>
       </c>
       <c r="W20">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD20">
@@ -2962,23 +2977,23 @@
         <v>63</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3032,35 +3047,35 @@
         <v>50</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>20</v>
       </c>
       <c r="W21">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y21">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>20</v>
@@ -3069,23 +3084,23 @@
         <v>64</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3139,34 +3154,34 @@
         <v>50</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R22" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U22">
         <v>21</v>
       </c>
       <c r="W22">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD22">
@@ -3176,23 +3191,23 @@
         <v>65</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3246,35 +3261,35 @@
         <v>50</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>22</v>
       </c>
       <c r="W23">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y23">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA23">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD23">
         <v>22</v>
@@ -3283,23 +3298,23 @@
         <v>66</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3353,34 +3368,34 @@
         <v>50</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U24">
         <v>23</v>
       </c>
       <c r="W24">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y24">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB24">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD24">
@@ -3390,23 +3405,23 @@
         <v>67</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3460,34 +3475,34 @@
         <v>50</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U25">
         <v>24</v>
       </c>
       <c r="W25">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y25">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA25">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD25">
@@ -3497,23 +3512,23 @@
         <v>68</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3567,35 +3582,35 @@
         <v>50</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U26">
         <v>25</v>
       </c>
       <c r="W26">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA26">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB26">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>25</v>
@@ -3604,23 +3619,23 @@
         <v>69</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3674,35 +3689,35 @@
         <v>50</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U27">
         <v>26</v>
       </c>
       <c r="W27">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>26</v>
@@ -3711,23 +3726,23 @@
         <v>70</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3781,35 +3796,35 @@
         <v>50</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U28">
         <v>27</v>
       </c>
       <c r="W28">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y28">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>27</v>
@@ -3818,23 +3833,23 @@
         <v>71</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3888,34 +3903,34 @@
         <v>50</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>28</v>
       </c>
       <c r="W29">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA29">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD29">
@@ -3925,23 +3940,23 @@
         <v>72</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3995,35 +4010,35 @@
         <v>50</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>29</v>
       </c>
       <c r="W30">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB30">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>29</v>
@@ -4032,23 +4047,23 @@
         <v>73</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4102,35 +4117,35 @@
         <v>50</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U31">
         <v>30</v>
       </c>
       <c r="W31">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA31">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>30</v>
@@ -4139,23 +4154,23 @@
         <v>74</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4209,34 +4224,34 @@
         <v>50</v>
       </c>
       <c r="Q32" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R32" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U32">
         <v>31</v>
       </c>
       <c r="W32">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y32">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD32">
@@ -4246,23 +4261,23 @@
         <v>75</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4316,35 +4331,35 @@
         <v>50</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>32</v>
       </c>
       <c r="W33">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y33">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA33">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>32</v>
@@ -4353,23 +4368,23 @@
         <v>76</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4423,34 +4438,34 @@
         <v>50</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U34">
         <v>33</v>
       </c>
       <c r="W34">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC34">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD34">
@@ -4460,23 +4475,23 @@
         <v>77</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4530,34 +4545,34 @@
         <v>50</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>34</v>
       </c>
       <c r="W35">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y35">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA35">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB35">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD35">
@@ -4567,23 +4582,23 @@
         <v>78</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4637,35 +4652,35 @@
         <v>50</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>35</v>
       </c>
       <c r="W36">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB36">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC36">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>35</v>
@@ -4674,23 +4689,23 @@
         <v>79</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4744,35 +4759,35 @@
         <v>50</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U37">
         <v>36</v>
       </c>
       <c r="W37">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y37">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA37">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB37">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD37">
         <v>36</v>
@@ -4781,23 +4796,23 @@
         <v>80</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4851,35 +4866,35 @@
         <v>50</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U38">
         <v>37</v>
       </c>
       <c r="W38">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>37</v>
@@ -4888,23 +4903,23 @@
         <v>81</v>
       </c>
       <c r="AF38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4958,35 +4973,35 @@
         <v>50</v>
       </c>
       <c r="Q39" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U39">
         <v>38</v>
       </c>
       <c r="W39">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y39">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="AB39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD39">
         <v>38</v>
@@ -4995,23 +5010,23 @@
         <v>82</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5065,35 +5080,35 @@
         <v>50</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U40">
         <v>39</v>
       </c>
       <c r="W40">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y40">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA40">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
       <c r="AB40">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD40">
         <v>39</v>
@@ -5102,23 +5117,23 @@
         <v>83</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5172,34 +5187,34 @@
         <v>50</v>
       </c>
       <c r="Q41" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R41" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U41">
         <v>40</v>
       </c>
       <c r="W41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y41">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA41">
         <f ca="1">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC41">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD41">
@@ -5209,23 +5224,23 @@
         <v>84</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5279,34 +5294,34 @@
         <v>50</v>
       </c>
       <c r="Q42" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R42" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U42">
         <v>41</v>
       </c>
       <c r="W42">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA42">
-        <f t="shared" ref="AA42:AC100" ca="1" si="10">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="AA42:AC100" ca="1" si="12">ROUND(RAND()*1,0)</f>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC42">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD42">
@@ -5316,23 +5331,23 @@
         <v>85</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5386,34 +5401,34 @@
         <v>50</v>
       </c>
       <c r="Q43" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U43">
         <v>42</v>
       </c>
       <c r="W43">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y43">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA43">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC43">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD43">
@@ -5423,23 +5438,23 @@
         <v>86</v>
       </c>
       <c r="AF43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5493,35 +5508,35 @@
         <v>50</v>
       </c>
       <c r="Q44" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R44" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U44">
         <v>43</v>
       </c>
       <c r="W44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB44">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD44">
         <v>43</v>
@@ -5530,23 +5545,23 @@
         <v>87</v>
       </c>
       <c r="AF44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5600,35 +5615,35 @@
         <v>50</v>
       </c>
       <c r="Q45" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R45" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U45">
         <v>44</v>
       </c>
       <c r="W45">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y45">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB45">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD45">
         <v>44</v>
@@ -5637,23 +5652,23 @@
         <v>88</v>
       </c>
       <c r="AF45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5707,34 +5722,34 @@
         <v>50</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U46">
         <v>45</v>
       </c>
       <c r="W46">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA46">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD46">
@@ -5744,23 +5759,23 @@
         <v>89</v>
       </c>
       <c r="AF46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5814,34 +5829,34 @@
         <v>50</v>
       </c>
       <c r="Q47" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R47" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U47">
         <v>46</v>
       </c>
       <c r="W47">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y47">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD47">
@@ -5851,23 +5866,23 @@
         <v>90</v>
       </c>
       <c r="AF47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5921,35 +5936,35 @@
         <v>50</v>
       </c>
       <c r="Q48" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R48" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U48">
         <v>47</v>
       </c>
       <c r="W48">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA48">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD48">
         <v>47</v>
@@ -5958,23 +5973,23 @@
         <v>91</v>
       </c>
       <c r="AF48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6028,35 +6043,35 @@
         <v>50</v>
       </c>
       <c r="Q49" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U49">
         <v>48</v>
       </c>
       <c r="W49">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB49">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC49">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD49">
         <v>48</v>
@@ -6065,23 +6080,23 @@
         <v>92</v>
       </c>
       <c r="AF49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6135,35 +6150,35 @@
         <v>50</v>
       </c>
       <c r="Q50" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>49</v>
       </c>
       <c r="W50">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y50">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA50">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB50">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC50">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD50">
         <v>49</v>
@@ -6172,23 +6187,23 @@
         <v>93</v>
       </c>
       <c r="AF50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6242,35 +6257,35 @@
         <v>50</v>
       </c>
       <c r="Q51" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U51">
         <v>50</v>
       </c>
       <c r="W51">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y51">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AC51">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>50</v>
@@ -6279,23 +6294,23 @@
         <v>94</v>
       </c>
       <c r="AF51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6349,34 +6364,34 @@
         <v>50</v>
       </c>
       <c r="Q52" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>51</v>
       </c>
       <c r="W52">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y52">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA52">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB52">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC52">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD52">
@@ -6386,23 +6401,23 @@
         <v>95</v>
       </c>
       <c r="AF52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH52" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6456,34 +6471,34 @@
         <v>50</v>
       </c>
       <c r="Q53" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R53" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U53">
         <v>52</v>
       </c>
       <c r="W53">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA53">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC53">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD53">
@@ -6493,23 +6508,23 @@
         <v>96</v>
       </c>
       <c r="AF53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH53" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6563,34 +6578,34 @@
         <v>50</v>
       </c>
       <c r="Q54" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R54" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U54">
         <v>53</v>
       </c>
       <c r="W54">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB54">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC54">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD54">
@@ -6600,23 +6615,23 @@
         <v>97</v>
       </c>
       <c r="AF54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH54" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6670,35 +6685,35 @@
         <v>50</v>
       </c>
       <c r="Q55" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R55" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U55">
         <v>54</v>
       </c>
       <c r="W55">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC55">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>54</v>
@@ -6707,23 +6722,23 @@
         <v>98</v>
       </c>
       <c r="AF55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH55" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6777,35 +6792,35 @@
         <v>50</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U56">
         <v>55</v>
       </c>
       <c r="W56">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA56">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC56">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD56">
         <v>55</v>
@@ -6814,23 +6829,23 @@
         <v>99</v>
       </c>
       <c r="AF56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH56" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6884,35 +6899,35 @@
         <v>50</v>
       </c>
       <c r="Q57" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R57" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U57">
         <v>56</v>
       </c>
       <c r="W57">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y57">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA57">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD57">
         <v>56</v>
@@ -6921,23 +6936,23 @@
         <v>100</v>
       </c>
       <c r="AF57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH57" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -6991,35 +7006,35 @@
         <v>50</v>
       </c>
       <c r="Q58" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R58" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U58">
         <v>57</v>
       </c>
       <c r="W58">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
       </c>
       <c r="AA58">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB58">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD58">
         <v>57</v>
@@ -7028,23 +7043,23 @@
         <v>101</v>
       </c>
       <c r="AF58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH58" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI58" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ58" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7098,35 +7113,35 @@
         <v>50</v>
       </c>
       <c r="Q59" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R59" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U59">
         <v>58</v>
       </c>
       <c r="W59">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA59">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB59">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC59">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD59">
         <v>58</v>
@@ -7135,23 +7150,23 @@
         <v>102</v>
       </c>
       <c r="AF59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH59" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7205,35 +7220,35 @@
         <v>50</v>
       </c>
       <c r="Q60" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R60" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U60">
         <v>59</v>
       </c>
       <c r="W60">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA60">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB60">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC60">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AD60">
         <v>59</v>
@@ -7242,23 +7257,23 @@
         <v>103</v>
       </c>
       <c r="AF60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH60" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI60" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ60" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7312,34 +7327,34 @@
         <v>50</v>
       </c>
       <c r="Q61" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R61" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U61">
         <v>60</v>
       </c>
       <c r="W61">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y61">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD61">
@@ -7349,23 +7364,23 @@
         <v>104</v>
       </c>
       <c r="AF61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH61" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI61" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ61" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7419,35 +7434,35 @@
         <v>50</v>
       </c>
       <c r="Q62" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R62" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U62">
         <v>61</v>
       </c>
       <c r="W62">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y62">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA62">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB62">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="AC62">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>61</v>
@@ -7456,23 +7471,23 @@
         <v>105</v>
       </c>
       <c r="AF62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH62" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7526,34 +7541,34 @@
         <v>50</v>
       </c>
       <c r="Q63" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R63" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U63">
         <v>62</v>
       </c>
       <c r="W63">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA63">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB63">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC63">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AD63">
@@ -7563,23 +7578,23 @@
         <v>106</v>
       </c>
       <c r="AF63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH63" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ63" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7633,35 +7648,35 @@
         <v>50</v>
       </c>
       <c r="Q64" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R64" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U64">
         <v>63</v>
       </c>
       <c r="W64">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB64">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC64">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="AD64">
         <v>63</v>
@@ -7670,23 +7685,23 @@
         <v>107</v>
       </c>
       <c r="AF64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH64" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7740,34 +7755,34 @@
         <v>50</v>
       </c>
       <c r="Q65" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U65">
         <v>64</v>
       </c>
       <c r="W65">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1</v>
       </c>
       <c r="Y65">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA65">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="AC65">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="AD65">
@@ -7777,23 +7792,23 @@
         <v>108</v>
       </c>
       <c r="AF65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH65" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7847,35 +7862,35 @@
         <v>50</v>
       </c>
       <c r="Q66" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R66" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U66">
         <v>65</v>
       </c>
       <c r="W66">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="Y66">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB66">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC66">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD66">
         <v>65</v>
@@ -7884,23 +7899,23 @@
         <v>109</v>
       </c>
       <c r="AF66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH66" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -7954,34 +7969,34 @@
         <v>50</v>
       </c>
       <c r="Q67" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R67" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U67">
         <v>66</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W93" ca="1" si="11">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="W67:W93" ca="1" si="13">ROUND(RAND()*1,0)</f>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="AA67">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB67">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC67">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD67">
@@ -7991,23 +8006,23 @@
         <v>110</v>
       </c>
       <c r="AF67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH67" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI67" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ67" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8061,35 +8076,35 @@
         <v>50</v>
       </c>
       <c r="Q68" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R68" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U68">
         <v>67</v>
       </c>
       <c r="W68">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y68">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y68">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AA68">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC68">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD68">
         <v>67</v>
@@ -8098,23 +8113,23 @@
         <v>111</v>
       </c>
       <c r="AF68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG68" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ68" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8168,35 +8183,35 @@
         <v>50</v>
       </c>
       <c r="Q69" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R69" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="U69">
         <v>68</v>
       </c>
       <c r="W69">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y69">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AA69">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC69">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD69">
         <v>68</v>
@@ -8205,23 +8220,23 @@
         <v>112</v>
       </c>
       <c r="AF69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG69" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8275,34 +8290,34 @@
         <v>50</v>
       </c>
       <c r="Q70" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U70">
         <v>69</v>
       </c>
       <c r="W70">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y70">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB70">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC70">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD70">
@@ -8312,23 +8327,23 @@
         <v>113</v>
       </c>
       <c r="AF70" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG70" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8382,34 +8397,34 @@
         <v>50</v>
       </c>
       <c r="Q71" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="R71" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="U71">
         <v>70</v>
       </c>
       <c r="W71">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y71">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AA71">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB71">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD71">
@@ -8419,23 +8434,23 @@
         <v>77</v>
       </c>
       <c r="AF71" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG71" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8489,34 +8504,34 @@
         <v>50</v>
       </c>
       <c r="Q72" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R72" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="U72">
         <v>71</v>
       </c>
       <c r="W72">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y72">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AA72">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB72">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD72">
@@ -8526,23 +8541,23 @@
         <v>114</v>
       </c>
       <c r="AF72" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG72" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI72" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ72" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8596,34 +8611,34 @@
         <v>50</v>
       </c>
       <c r="Q73" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R73" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="U73">
         <v>72</v>
       </c>
       <c r="W73">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y73">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y73">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AA73">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB73">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD73">
@@ -8633,23 +8648,23 @@
         <v>115</v>
       </c>
       <c r="AF73" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI73" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ73" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8703,34 +8718,34 @@
         <v>50</v>
       </c>
       <c r="Q74" s="1">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74:R100" ca="1" si="12">ROUND(RAND()*1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="R74:R100" ca="1" si="14">ROUND(RAND()*1,0)</f>
+        <v>1</v>
       </c>
       <c r="U74">
         <v>73</v>
       </c>
       <c r="W74">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y74">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
       <c r="AA74">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB74">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD74">
@@ -8740,23 +8755,23 @@
         <v>116</v>
       </c>
       <c r="AF74" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG74" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH74" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI74" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ74" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8810,35 +8825,35 @@
         <v>50</v>
       </c>
       <c r="Q75" s="1">
-        <f t="shared" ref="Q75:Q100" ca="1" si="13">ROUND(RAND()*1,0)</f>
+        <f t="shared" ref="Q75:Q100" ca="1" si="15">ROUND(RAND()*1,0)</f>
         <v>1</v>
       </c>
       <c r="R75" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U75">
         <v>74</v>
       </c>
       <c r="W75">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y75">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AA75">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB75">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC75">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD75">
         <v>74</v>
@@ -8847,23 +8862,23 @@
         <v>117</v>
       </c>
       <c r="AF75" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG75" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH75" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -8917,35 +8932,35 @@
         <v>50</v>
       </c>
       <c r="Q76" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="R76" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U76">
         <v>75</v>
       </c>
       <c r="W76">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y76">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y76">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AA76">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB76">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC76">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD76">
         <v>75</v>
@@ -8954,23 +8969,23 @@
         <v>118</v>
       </c>
       <c r="AF76" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG76" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH76" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI76" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ76" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9024,35 +9039,35 @@
         <v>50</v>
       </c>
       <c r="Q77" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R77" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="U77">
         <v>76</v>
       </c>
       <c r="W77">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y77">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AA77">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC77">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD77">
         <v>76</v>
@@ -9061,23 +9076,23 @@
         <v>119</v>
       </c>
       <c r="AF77" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG77" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH77" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI77" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ77" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9131,34 +9146,34 @@
         <v>50</v>
       </c>
       <c r="Q78" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U78">
         <v>77</v>
       </c>
       <c r="W78">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y78">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA78">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB78">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC78">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD78">
@@ -9168,23 +9183,23 @@
         <v>90</v>
       </c>
       <c r="AF78" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG78" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH78" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9238,34 +9253,34 @@
         <v>50</v>
       </c>
       <c r="Q79" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="R79" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U79">
         <v>78</v>
       </c>
       <c r="W79">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y79">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" ca="1" si="9"/>
         <v>1</v>
       </c>
       <c r="AA79">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB79">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD79">
@@ -9275,23 +9290,23 @@
         <v>120</v>
       </c>
       <c r="AF79" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG79" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH79" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9345,35 +9360,35 @@
         <v>50</v>
       </c>
       <c r="Q80" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R80" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U80">
         <v>79</v>
       </c>
       <c r="W80">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y80">
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="Y80">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AA80">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB80">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC80">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD80">
         <v>79</v>
@@ -9382,23 +9397,23 @@
         <v>121</v>
       </c>
       <c r="AF80" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG80" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9452,35 +9467,35 @@
         <v>50</v>
       </c>
       <c r="Q81" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="R81" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U81">
         <v>80</v>
       </c>
       <c r="W81">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y81">
         <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
-      <c r="Y81">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
       <c r="AA81">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB81">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC81">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD81">
         <v>80</v>
@@ -9489,23 +9504,23 @@
         <v>122</v>
       </c>
       <c r="AF81" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG81" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9559,34 +9574,34 @@
         <v>50</v>
       </c>
       <c r="Q82" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="U82">
         <v>81</v>
       </c>
       <c r="W82">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB82">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC82">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD82">
@@ -9596,23 +9611,23 @@
         <v>123</v>
       </c>
       <c r="AF82" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG82" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH82" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9666,35 +9681,35 @@
         <v>50</v>
       </c>
       <c r="Q83" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R83" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="U83">
         <v>82</v>
       </c>
       <c r="W83">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="Y83">
-        <f t="shared" ref="W83:Y100" ca="1" si="14">ROUND(RAND()*1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="W83:Y100" ca="1" si="16">ROUND(RAND()*1,0)</f>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB83">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC83">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD83">
         <v>82</v>
@@ -9703,23 +9718,23 @@
         <v>124</v>
       </c>
       <c r="AF83" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ83" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9773,34 +9788,34 @@
         <v>50</v>
       </c>
       <c r="Q84" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R84" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U84">
         <v>83</v>
       </c>
       <c r="W84">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="Y84">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD84">
@@ -9810,23 +9825,23 @@
         <v>125</v>
       </c>
       <c r="AF84" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG84" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH84" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9880,35 +9895,35 @@
         <v>50</v>
       </c>
       <c r="Q85" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U85">
         <v>84</v>
       </c>
       <c r="W85">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="Y85">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB85">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC85">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD85">
         <v>84</v>
@@ -9917,23 +9932,23 @@
         <v>97</v>
       </c>
       <c r="AF85" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG85" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH85" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ85" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -9987,35 +10002,35 @@
         <v>50</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R86" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="U86">
         <v>85</v>
       </c>
       <c r="W86">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="Y86">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="AA86">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB86">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC86">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>85</v>
@@ -10024,23 +10039,23 @@
         <v>90</v>
       </c>
       <c r="AF86" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG86" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH86" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ86" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10094,35 +10109,35 @@
         <v>50</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R87" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U87">
         <v>86</v>
       </c>
       <c r="W87">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="Y87">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB87">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC87">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD87">
         <v>86</v>
@@ -10131,23 +10146,23 @@
         <v>126</v>
       </c>
       <c r="AF87" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG87" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH87" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ87" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10201,34 +10216,34 @@
         <v>50</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U88">
         <v>87</v>
       </c>
       <c r="W88">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="Y88">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB88">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC88">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD88">
@@ -10238,23 +10253,23 @@
         <v>84</v>
       </c>
       <c r="AF88" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG88" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH88" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ88" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10308,34 +10323,34 @@
         <v>50</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U89">
         <v>88</v>
       </c>
       <c r="W89">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="Y89">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA89">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC89">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD89">
@@ -10345,23 +10360,23 @@
         <v>127</v>
       </c>
       <c r="AF89" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG89" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH89" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10415,34 +10430,34 @@
         <v>50</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U90">
         <v>89</v>
       </c>
       <c r="W90">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="Y90">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA90">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD90">
@@ -10452,23 +10467,23 @@
         <v>128</v>
       </c>
       <c r="AF90" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG90" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH90" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ90" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10522,35 +10537,35 @@
         <v>50</v>
       </c>
       <c r="Q91" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R91" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="U91">
         <v>90</v>
       </c>
       <c r="W91">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="Y91">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA91">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB91">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD91">
         <v>90</v>
@@ -10559,23 +10574,23 @@
         <v>129</v>
       </c>
       <c r="AF91" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG91" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH91" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ91" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10629,34 +10644,34 @@
         <v>50</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R92" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>91</v>
       </c>
       <c r="W92">
-        <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="AA92">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB92">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC92">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD92">
@@ -10666,23 +10681,23 @@
         <v>130</v>
       </c>
       <c r="AF92" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG92" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH92" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ92" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10736,34 +10751,34 @@
         <v>50</v>
       </c>
       <c r="Q93" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="U93">
         <v>92</v>
       </c>
       <c r="W93">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
       </c>
       <c r="Y93">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="AA93">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB93">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC93">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD93">
@@ -10773,23 +10788,23 @@
         <v>131</v>
       </c>
       <c r="AF93" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG93" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH93" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10843,34 +10858,34 @@
         <v>50</v>
       </c>
       <c r="Q94" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
       </c>
       <c r="R94" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="U94">
         <v>93</v>
       </c>
       <c r="W94">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="Y94">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="AA94">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB94">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD94">
@@ -10880,23 +10895,23 @@
         <v>56</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH94" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -10950,34 +10965,34 @@
         <v>50</v>
       </c>
       <c r="Q95" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U95">
         <v>94</v>
       </c>
       <c r="W95">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="Y95">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA95">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB95">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC95">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD95">
@@ -10987,23 +11002,23 @@
         <v>129</v>
       </c>
       <c r="AF95" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG95" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH95" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11057,34 +11072,34 @@
         <v>50</v>
       </c>
       <c r="Q96" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R96" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="U96">
         <v>95</v>
       </c>
       <c r="W96">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="Y96">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="AA96">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AC96">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AD96">
@@ -11094,23 +11109,23 @@
         <v>132</v>
       </c>
       <c r="AF96" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG96" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH96" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11164,35 +11179,35 @@
         <v>50</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="U97">
         <v>96</v>
       </c>
       <c r="W97">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="Y97">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB97">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC97">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AD97">
         <v>96</v>
@@ -11201,23 +11216,23 @@
         <v>133</v>
       </c>
       <c r="AF97" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG97" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH97" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ97" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11271,35 +11286,35 @@
         <v>50</v>
       </c>
       <c r="Q98" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="R98" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>1</v>
       </c>
       <c r="U98">
         <v>97</v>
       </c>
       <c r="W98">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="Y98">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AB98">
-        <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AD98">
         <v>97</v>
@@ -11308,23 +11323,23 @@
         <v>134</v>
       </c>
       <c r="AF98" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG98" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH98" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11378,34 +11393,34 @@
         <v>50</v>
       </c>
       <c r="Q99" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
       <c r="R99" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
       <c r="U99">
         <v>98</v>
       </c>
       <c r="W99">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="Y99">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA99">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AB99">
-        <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
       </c>
       <c r="AC99">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD99">
@@ -11415,23 +11430,23 @@
         <v>135</v>
       </c>
       <c r="AF99" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG99" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH99" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI99" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ99" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11485,34 +11500,34 @@
         <v>50</v>
       </c>
       <c r="Q100" s="1">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="15"/>
         <v>1</v>
       </c>
       <c r="R100" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
       </c>
       <c r="U100">
         <v>99</v>
       </c>
       <c r="W100">
-        <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
       </c>
       <c r="Y100">
-        <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="AB100">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AC100">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="AD100">
@@ -11522,23 +11537,23 @@
         <v>136</v>
       </c>
       <c r="AF100" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="AG100" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="AH100" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="AI100" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AJ100" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
